--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="25200" windowHeight="12030"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>SALDO INICIAL</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>tengo 8 usdt</t>
+  </si>
+  <si>
+    <t>debo 7 usdt</t>
+  </si>
+  <si>
+    <t>ingrsé 8 usdt</t>
+  </si>
+  <si>
+    <t>tengo que llegar a 23</t>
   </si>
   <si>
     <t>PORCENTAJE DIARIO DE GANANCIAS</t>
@@ -34,32 +49,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -68,51 +425,345 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,10 +774,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -164,71 +815,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,7 +907,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -279,11 +930,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -292,13 +943,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -308,7 +959,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -317,7 +968,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -326,7 +977,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -334,10 +985,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -397,91 +1048,115 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.575" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.2916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
+    <row r="2" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A2" s="6">
         <v>15</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="9">
+        <v>44689</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+    <row r="3" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
+      <c r="C5" s="6">
+        <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30</v>
-      </c>
+    <row r="6" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+    <row r="7" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="6">
+    <row r="8" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A8" s="8">
         <f>POWER(1+(B5/100),C5)*A5</f>
-      </c>
-      <c r="B8" s="6">
+        <v>1347.84891533291</v>
+      </c>
+      <c r="B8" s="8">
         <f>A8-A5</f>
-      </c>
-      <c r="C8" s="3"/>
+        <v>347.848915332906</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12030"/>
+    <workbookView windowWidth="25200" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -45,18 +46,25 @@
   <si>
     <t>ganancia</t>
   </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>ganancia %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +97,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,6 +139,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -109,29 +178,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -142,81 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,11 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,16 +466,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,205 +524,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -707,7 +710,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,36 +1060,36 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.575" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.2916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.575" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.2916666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.15" style="4" customWidth="1"/>
     <col min="5" max="5" width="11"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>15</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="9">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="2">
         <v>44689</v>
       </c>
       <c r="F2" t="s">
@@ -1098,9 +1100,9 @@
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="F3" t="s">
         <v>4</v>
       </c>
@@ -1109,54 +1111,91 @@
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>1000</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <f>POWER(1+(B5/100),C5)*A5</f>
         <v>1347.84891533291</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <f>A8-A5</f>
         <v>347.848915332906</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -58,11 +58,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,6 +79,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -86,21 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -118,14 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,21 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -178,6 +156,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -187,14 +166,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,17 +209,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,25 +232,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,61 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,91 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +465,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,20 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,148 +541,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,13 +1166,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
@@ -1194,6 +1194,14 @@
         <v>2.223</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -1,44 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet1"/>
+    <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
+    <sheet name="formulas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
-    <t>dia</t>
-  </si>
-  <si>
-    <t>ganancia %</t>
-  </si>
-  <si>
     <t>SALDO INICIAL</t>
-  </si>
-  <si>
-    <t>comentarios</t>
-  </si>
-  <si>
-    <t>tengo 8 usdt</t>
-  </si>
-  <si>
-    <t>debo 7 usdt</t>
-  </si>
-  <si>
-    <t>ingrsé 8 usdt</t>
-  </si>
-  <si>
-    <t>tengo que llegar a 23</t>
   </si>
   <si>
     <t>PORCENTAJE DIARIO DE GANANCIAS</t>
@@ -52,44 +31,405 @@
   <si>
     <t>ganancia</t>
   </si>
+  <si>
+    <t>tamaño posición</t>
+  </si>
+  <si>
+    <t>apalancamiento</t>
+  </si>
+  <si>
+    <t>margen</t>
+  </si>
+  <si>
+    <t>precio de entrada</t>
+  </si>
+  <si>
+    <t>precio de salida</t>
+  </si>
+  <si>
+    <t>variación %</t>
+  </si>
+  <si>
+    <t>pnl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,90 +441,331 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -195,10 +776,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -236,71 +817,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -328,7 +909,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -351,11 +932,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -364,13 +945,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -380,7 +961,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -389,7 +970,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -398,7 +979,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -406,10 +987,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -469,183 +1050,184 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:1">
+      <c r="A2" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1"/>
+    <row r="4" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1"/>
+    <row r="7" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="12">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="3">
-        <v>44689</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12">
-        <v>200</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="12">
-        <v>60</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="14">
+    <row r="8" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A8" s="9">
         <f>POWER(1+(B5/100),C5)*A5</f>
-      </c>
-      <c r="B8" s="14">
+        <v>1347.84891533291</v>
+      </c>
+      <c r="B8" s="9">
         <f>A8-A5</f>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>347.848915332906</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.8611111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4351851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8611111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8611111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5740740740741" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" ht="19.5" customHeight="1" spans="1:7">
       <c r="A2" s="3">
-        <v>44690</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2.223</v>
+        <v>555</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <f>A2/B2</f>
+        <v>55.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>19.4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <f>((E2/D2)-1)*100</f>
+        <v>-74.2268041237113</v>
+      </c>
+      <c r="G2" s="3">
+        <f>((E2/D2)-1)*A2</f>
+        <v>-411.958762886598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" ht="19.5" customHeight="1" spans="1:7">
       <c r="A3" s="3">
-        <v>44691</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-1.922</v>
+        <v>1100</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <f>A3/B3</f>
+        <v>110</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>103</v>
+      </c>
+      <c r="F3" s="3">
+        <f>((E3/D3)-1)*100</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>((E3/D3)-1)*A3</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -72,6 +72,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,21 +101,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,30 +145,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +174,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -186,56 +207,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +246,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +281,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,13 +365,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,151 +435,65 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,17 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,28 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,179 +583,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1066,59 +1134,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:1">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>1000</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1"/>
     <row r="7" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <f>POWER(1+(B5/100),C5)*A5</f>
         <v>1347.84891533291</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <f>A8-A5</f>
         <v>347.848915332906</v>
       </c>
@@ -1134,13 +1202,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.8611111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.4351851851852" style="1" customWidth="1"/>
@@ -1155,75 +1223,263 @@
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>555</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <f>A2/B2</f>
         <v>55.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>19.4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <f>((E2/D2)-1)*100</f>
         <v>-74.2268041237113</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <f>((E2/D2)-1)*A2</f>
         <v>-411.958762886598</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A3" s="3">
-        <v>1100</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="5">
+        <v>53.2</v>
+      </c>
+      <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <f>A3/B3</f>
-        <v>110</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
-        <v>103</v>
-      </c>
-      <c r="F3" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.049723</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.050597</v>
+      </c>
+      <c r="F3" s="5">
         <f>((E3/D3)-1)*100</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
+        <v>1.75773786778755</v>
+      </c>
+      <c r="G3" s="5">
         <f>((E3/D3)-1)*A3</f>
-        <v>33</v>
+        <v>0.935116545662974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
+        <v>12.87</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C13" si="0">A4/B4</f>
+        <v>1.287</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.049723</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.050597</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F13" si="1">((E4/D4)-1)*100</f>
+        <v>1.75773786778755</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G13" si="2">((E4/D4)-1)*A4</f>
+        <v>0.226220863584257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -59,9 +59,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -92,6 +92,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -100,15 +114,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,38 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,15 +192,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -222,15 +223,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,49 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,133 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +506,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +556,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,27 +594,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,127 +618,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1321,29 +1321,39 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="e">
+      <c r="A5" s="6">
+        <v>1100</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>110</v>
+      </c>
+      <c r="D5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100.5</v>
+      </c>
+      <c r="F5" s="5">
+        <f>((E5/D5)-1)*100</f>
+        <v>0.499999999999989</v>
+      </c>
+      <c r="G5" s="5">
+        <f>((E5/D5)-1)*A5</f>
+        <v>5.49999999999988</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="e">
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1358,10 +1368,12 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="e">
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1376,10 +1388,12 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="e">
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1394,10 +1408,12 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="e">
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1412,10 +1428,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="e">
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1430,10 +1448,12 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="e">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1448,10 +1468,12 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="e">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1466,10 +1488,12 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="e">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>

--- a/FORMULA DE GANANCIAS.xlsx
+++ b/FORMULA DE GANANCIAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -59,9 +59,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -92,54 +92,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -199,7 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -207,16 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,163 +383,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +506,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -571,21 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -597,13 +597,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,16 +621,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,103 +642,103 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,10 +770,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1126,69 +1126,58 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.5740740740741" style="7" customWidth="1"/>
     <col min="2" max="2" width="34.287037037037" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.1481481481481" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:1">
+    <row r="1" ht="19.5" customHeight="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:1">
-      <c r="A2" s="10">
-        <v>15</v>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A2" s="11">
+        <v>186</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="11">
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
-    <row r="4" ht="19.5" customHeight="1" spans="1:3">
+    <row r="4" ht="19.5" customHeight="1" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="10">
-        <v>1000</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A5" s="12">
+        <f>POWER(1+(B2/100),C2)*A2</f>
+        <v>232.736548071141</v>
       </c>
       <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1"/>
-    <row r="7" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A8" s="12">
-        <f>POWER(1+(B5/100),C5)*A5</f>
-        <v>1347.84891533291</v>
-      </c>
-      <c r="B8" s="12">
-        <f>A8-A5</f>
-        <v>347.848915332906</v>
+        <f>A5-A2</f>
+        <v>46.7365480711411</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1193,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1338,11 +1327,11 @@
         <v>100.5</v>
       </c>
       <c r="F5" s="5">
-        <f>((E5/D5)-1)*100</f>
+        <f t="shared" si="1"/>
         <v>0.499999999999989</v>
       </c>
       <c r="G5" s="5">
-        <f>((E5/D5)-1)*A5</f>
+        <f t="shared" si="2"/>
         <v>5.49999999999988</v>
       </c>
     </row>
